--- a/Linear_Programming/output.xlsx
+++ b/Linear_Programming/output.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="C113" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="C114" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C112" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="C111" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="C112" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C114" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="C115" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="C116" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="C111" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="C113" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,9 +466,9 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:ErnestoAnalisis
-Asignatura:AnalisisCp
-Aula:2</t>
+          <t>Profesor:HectorP
+Asignatura:ProgramaciónCp
+Aula:1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -476,7 +476,7 @@
         <is>
           <t>Profesor:DalianisAlgebra
 Asignatura:AlgebraCP
-Aula:4</t>
+Aula:2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <is>
           <t>Profesor:Idania
 Asignatura:Analisis
-Aula:2</t>
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -492,33 +492,33 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:DanielL
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:CarmentL
 Asignatura:LogicaCp
-Aula:1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programación
-Aula:1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:ErnestoAnalisis
-Asignatura:AnalisisCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+Aula:Postgrado</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Profesor:CarlaP
 Asignatura:ProgramaciónCp
-Aula:1</t>
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:Postgrado</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -528,30 +528,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:5</t>
+          <t>Profesor:PepeAL
+Asignatura:AlgebraCP
+Aula:Postgrado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Profesor:DalianisAlgebra
-Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramaciónCp
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
 Aula:5</t>
         </is>
       </c>
@@ -605,25 +605,25 @@
         <is>
           <t>Profesor:ErnestoAnalisis
 Asignatura:AnalisisCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programación
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
-        </is>
-      </c>
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:DanielL
+Asignatura:LogicaCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAlgebra
+Asignatura:AlgebraCP
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -631,31 +631,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
+          <t>Profesor:CarlaP
+Asignatura:ProgramaciónCp
+Aula:2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Profesor:CayetanaAL
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAlgebra
 Asignatura:AlgebraCP
 Aula:Postgrado</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramaciónCp
-Aula:1</t>
         </is>
       </c>
     </row>
@@ -663,33 +669,27 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Profesor:CristinaA
-Asignatura:AnalisisCp
-Aula:1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAlgebra
-Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Profesor:Yudivian
 Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
+          <t>Profesor:HectorP
 Asignatura:ProgramaciónCp
-Aula:5</t>
+Aula:3</t>
         </is>
       </c>
     </row>
@@ -742,23 +742,29 @@
         <is>
           <t>Profesor:ErnestoAnalisis
 Asignatura:AnalisisCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAlgebra
+Asignatura:AlgebraCP
+Aula:5</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramaciónCp
-Aula:2</t>
+          <t>Profesor:PepeAL
+Asignatura:AlgebraCP
+Aula:1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:2</t>
+          <t>Profesor:ErnestoAnalisis
+Asignatura:AnalisisCp
+Aula:3</t>
         </is>
       </c>
     </row>
@@ -768,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
+          <t>Profesor:CarmentL
 Asignatura:LogicaCp
 Aula:1</t>
         </is>
@@ -776,23 +782,23 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Profesor:CarlaP
+Asignatura:ProgramaciónCp
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Profesor:Celia
 Asignatura:Algebra
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programación
-Aula:3</t>
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -802,33 +808,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Profesor:HectorP
 Asignatura:ProgramaciónCp
-Aula:2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Profesor:CayetanaAL
-Asignatura:AlgebraCP
 Aula:3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAlgebra
-Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -877,93 +877,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Profesor:HectorP
-Asignatura:ProgramaciónCp
-Aula:2</t>
-        </is>
-      </c>
+          <t>Profesor:ErnestoAnalisis
+Asignatura:AnalisisCp
+Aula:5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAlgebra
+Asignatura:AlgebraCP
+Aula:2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Profesor:Celia
 Asignatura:Algebra
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAL
-Asignatura:AlgebraCP
-Aula:Postgrado</t>
-        </is>
-      </c>
+Aula:5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:DalianisAlgebra
+Asignatura:AlgebraCP
+Aula:1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:Postgrado</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Profesor:HectorP
+Asignatura:ProgramaciónCp
+Aula:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:OmarLogica
+Asignatura:LogicaCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:PacoP
+Asignatura:ProgramaciónCp
+Aula:Postgrado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Profesor:Idania
 Asignatura:Analisis
 Aula:4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Profesor:Piad
-Asignatura:Programación
-Aula:3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramaciónCp
-Aula:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:DalianisAlgebra
-Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:2</t>
         </is>
       </c>
     </row>
@@ -1012,61 +1012,61 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Profesor:ErnestoAnalisis
-Asignatura:AnalisisCp
-Aula:2</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Profesor:Piad
-Asignatura:Programación
-Aula:3</t>
+          <t>Profesor:PacoP
+Asignatura:ProgramaciónCp
+Aula:2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Profesor:DalianisAlgebra
 Asignatura:AlgebraCP
-Aula:4</t>
+Aula:2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
+          <t>Profesor:HectorP
 Asignatura:ProgramaciónCp
-Aula:Postgrado</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:4</t>
-        </is>
-      </c>
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Profesor:CristinaA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:Postgrado</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramaciónCp
-Aula:1</t>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -1074,33 +1074,33 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Profesor:OmarLogica
+Asignatura:LogicaCp
+Aula:1</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>Profesor:PepeAL
 Asignatura:AlgebraCP
-Aula:3</t>
-        </is>
-      </c>
+Aula:Postgrado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:Piad
+Asignatura:Programación
+Aula:4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
+          <t>Profesor:CristinaA
 Asignatura:AnalisisCp
-Aula:2</t>
+Aula:5</t>
         </is>
       </c>
     </row>
@@ -1151,61 +1151,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profesor:DanielL
-Asignatura:LogicaCp
-Aula:1</t>
+          <t>Profesor:ErnestoAnalisis
+Asignatura:AnalisisCp
+Aula:5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>Profesor:Idania
+Asignatura:Analisis
+Aula:4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Profesor:PepeAL
 Asignatura:AlgebraCP
-Aula:Postgrado</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Profesor:PepeAL
-Asignatura:AlgebraCP
-Aula:5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+Aula:1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Profesor:Celia
+Asignatura:Algebra
+Aula:5</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Profesor:Idania
-Asignatura:Analisis
-Aula:4</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Profesor:Celia
-Asignatura:Algebra
-Aula:2</t>
+          <t>Profesor:PacoP
+Asignatura:ProgramaciónCp
+Aula:5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:4</t>
+          <t>Profesor:HectorP
+Asignatura:ProgramaciónCp
+Aula:2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Profesor:CarlaP
-Asignatura:ProgramaciónCp
-Aula:1</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1213,31 +1207,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor:PacoP
-Asignatura:ProgramaciónCp
-Aula:3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Profesor:CarmentL
+Asignatura:LogicaCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Profesor:Yudivian
+Asignatura:Logica
+Aula:1</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Profesor:CayetanaAL
+Asignatura:AlgebraCP
+Aula:5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Profesor:MercedesA
+Asignatura:AnalisisCp
+Aula:1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Profesor:Piad
 Asignatura:Programación
 Aula:Postgrado</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Profesor:Yudivian
-Asignatura:Logica
-Aula:2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Profesor:MercedesA
-Asignatura:AnalisisCp
-Aula:2</t>
         </is>
       </c>
     </row>
